--- a/Notes/AAA-miscellaneous/QUESTIONS/SAP HANA Practice -  Only Questions.xlsx
+++ b/Notes/AAA-miscellaneous/QUESTIONS/SAP HANA Practice -  Only Questions.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\NDAFILE\Study Materials\SAP ABAP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://capgemini-my.sharepoint.com/personal/abhay_bhagwanjee-singh_capgemini_com/Documents/Desktop/SAP/Notes/AAA-miscellaneous/QUESTIONS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A50AD46-B4BD-4F10-9727-D8D4AB2E6AD1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="17" documentId="13_ncr:1_{1A50AD46-B4BD-4F10-9727-D8D4AB2E6AD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FB887764-8B74-425D-9C4D-03EB477E13C0}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{E165A4FE-4E54-44D9-9800-93AC6492BD06}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{E165A4FE-4E54-44D9-9800-93AC6492BD06}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,12 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -39,14 +44,6 @@
     <t>Differences in syntax of enhanced Open SQL and classical Open SQL</t>
   </si>
   <si>
-    <t xml:space="preserve">Things to keep in mind while using ADBC
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pre-requisites for Class Definition in AMDP
-</t>
-  </si>
-  <si>
     <t>What does the Name Server do?</t>
   </si>
   <si>
@@ -68,10 +65,6 @@
     <t>What are the functional checks?</t>
   </si>
   <si>
-    <t xml:space="preserve">Features of  code-to-data approach to programming.
-</t>
-  </si>
-  <si>
     <t>Features of Data Provisioning Technique SRS(SAP Replication Server).</t>
   </si>
   <si>
@@ -91,6 +84,15 @@
   </si>
   <si>
     <t>What are the performance checks?</t>
+  </si>
+  <si>
+    <t>Things to keep in mind while using ADBC</t>
+  </si>
+  <si>
+    <t>Pre-requisites for Class Definition in AMDP</t>
+  </si>
+  <si>
+    <t>Features of  code-to-data approach to programming.</t>
   </si>
 </sst>
 </file>
@@ -149,10 +151,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -173,9 +175,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -213,7 +215,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -319,7 +321,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -461,7 +463,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -469,110 +471,168 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2378704-3A24-4F65-AF56-BA0238D85006}">
-  <dimension ref="A1:A19"/>
+  <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B19" sqref="A1:B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="123.6328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="72.90625" customWidth="1"/>
+    <col min="1" max="1" width="2.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="94" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A3" s="2" t="s">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>4</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>5</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>6</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>7</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A4" s="2" t="s">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>8</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A5" s="2" t="s">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>9</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>10</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>11</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <v>12</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A13">
+        <v>13</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A14">
+        <v>14</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A15">
+        <v>15</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A16">
+        <v>16</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A17">
+        <v>17</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A18">
+        <v>18</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A19">
+        <v>19</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A6" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A7" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A8" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A9" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A10" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A11" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A12" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A13" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A14" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A15" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A16" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A17" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A18" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A19" s="2" t="s">
-        <v>10</v>
       </c>
     </row>
   </sheetData>
